--- a/WashMe/Database.xlsx
+++ b/WashMe/Database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\WashMe Mobile web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GITHUB\TugasAkhir\WashMe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Database : washmedb</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>nohp</t>
+  </si>
+  <si>
+    <t>int</t>
   </si>
 </sst>
 </file>
@@ -128,14 +131,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,7 +425,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,166 +437,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C7" s="1">
+        <v>255</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="3">
-        <v>11</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="C8" s="1">
+        <v>255</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2">
-        <v>255</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="C9" s="1">
+        <v>100</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="2">
-        <v>255</v>
-      </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2">
-        <v>255</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="2">
-        <v>255</v>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2">
-        <v>255</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="2">
-        <v>255</v>
-      </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>15</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="2">
-        <v>15</v>
-      </c>
-      <c r="I10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
